--- a/WebSystem/ExcelFile/template.xlsx
+++ b/WebSystem/ExcelFile/template.xlsx
@@ -21,35 +21,43 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
-    <t>UserID</t>
-  </si>
-  <si>
-    <t>LogName</t>
-  </si>
-  <si>
-    <t>Area</t>
-  </si>
-  <si>
-    <t>Department</t>
-  </si>
-  <si>
-    <t>State</t>
-  </si>
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>CellPhone</t>
-  </si>
-  <si>
-    <t>AdminUser</t>
+    <t>用户ID</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>登录名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>部门</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>邮箱</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>电话号码</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>真实姓名</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>用户类型</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>最近登录时间</t>
+    <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -64,13 +72,28 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="0"/>
+      <name val="等线"/>
+      <family val="3"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -85,8 +108,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -370,7 +394,7 @@
   <dimension ref="A1:H1"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:E1048576"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -384,34 +408,35 @@
     <col min="8" max="8" width="20.375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:8" s="1" customFormat="1" ht="18" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>